--- a/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Well, I want to welcome all of our members to our hearing today. I am particularly pleased to have some of our Nation's foremost naval experts providing testimony before our subcommittee.    We have the Honorable John F. Lehman, former Secretary of the Navy, and Admiral Robert J. Natter, U.S. Navy, retired, former Commander, Fleet Forces Command. Gentlemen, thank you so much for all that you have done for our country and we are delighted to have you with us today.    When John Lehman stepped down as Secretary of the Navy in 1987, we had 594 ships. When Admiral Natter retired from the Navy in 2003, we had 297 ships. Today, we have 272 ships. The size of our fleet is only one metric for Navy strength, but it is an important one. And while I firmly believe that the United States Navy remains the most powerful and capable maritime force in the world, I am concerned about the future and the trend lines that we see in those three points.    We have heard from the Chief of Naval Operations [CNO] Admiral Richardson that we are returning to an era of great power competition in which our maritime superiority will be contested. We have heard the gaps in our aircraft carrier presence will continue to occur in the Middle East and the Pacific. We have heard from the Marine Corps that shortfalls in amphibious ships are driving them to consider deploying aboard foreign ships.    A few weeks ago, Admiral Harris, our commander in the Pacific, testified to Congress that the Navy can currently only fulfill 62 percent of his demand for submarines. We all thought that sounded pretty dire, but just last week I was informed by the Navy that across the board, the Navy will only be able to meet 42 percent of anticipated demand for forces in fiscal year 2017. So it turns out that Admiral Harris' situation may actually be above average, an alarming realization indeed.    The conclusion we should all be drawing from this data is that we need more ships, and more aircraft, and more investment in other elements and enablers of naval power. The administration points to a ship construction program that will meet the 380-ship Navy in the next few years. However, if one looks under the hood of this car, one sees some disturbing details. The administration continues to count ships that they intend to shrink wrap and tie to the pier. Once again, they are proposing to lay up half our cruisers and truncate the procurement of small surface combatants.    Now, in fiscal year 2017, they are asking for permission to deactivate an entire carrier air wing. These trend lines are, indeed, concerning and point to a clear need to provide additional investment in our Navy and in the other elements of our national defense. They are also evidence, I believe, of malaise and a lack of vision in thinking about American seapower.    While I believe that our uniformed leaders are fully capable of providing this vision and leadership, I believe the administration, and the next, must place a higher priority on national security and the strength of our Navy. Our witnesses today have fought these battles before and are a clear source of inspiration as we navigate these troubled waters and seek to rebuild our maritime strength. We are indebted to them for their service, and today we once again call on their wisdom and foresight. I look forward to hearing their thoughts.    But now I turn to my good friend and colleague, the ranking member of the subcommittee, Congressman Joe Courtney of Connecticut, for any comments he might have.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 29.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Great, thank you, Mr. Chairman, for holding today's hearing to hear the views of our two distinguished witnesses on the Navy's force structure. As the Chief of Naval Operations Admiral John Richardson shared with our committee last month, the Navy is undergoing a review of its Force Structure Assessment. Given the changing dynamics around the world, the growing demand for our ships, and the increasing strain on our naval fleet, I welcome this reassessment of our force structure requirements, which is the subject of today's hearing.    Our current fleet requirements stand at 308 ships which, thanks to the 84 ships under contract over the last several years, we expect to reach within the next 5 years. That is good news, but it is just a start because even under the Navy's plan, we will not sustain the levels needed to fully support the various components of that fleet.    While the 30-year shipbuilding plan for 2017 has still not been submitted to Congress, we expect it to reflect what we saw in the 2016 plan, that even when we meet the 308-ship goal, key shortfalls will remain.    For example, we will face shortages in small and large surface combatants as well as attack submarines over the next three decades. Additional shortfalls remain in the fighter aircraft and other capabilities that will be key to combating the challenges of the future.    Notably, one area that the CNO singled out for particular review in the Force Structure Assessment was our attack submarine force. The current requirement of 48 was set nearly a decade ago before undersea resurgence that we see now by China and Russia.    Retired Admiral Jim Stavridis told our panel that Russian submarine activity is probably 70 to 80 percent of what we saw during Cold War times. Admiral Harris told us of his concerns that the U.S. submarine force will dip to 41 at a time when China is increasing their fleet size and advancing their undersea capabilities. European Commander General Breedlove told us that the submarine shortfall leaves us playing zone defense in the North Atlantic. And above all, our combatant commanders have been clear to us that the current fleet of 54 attack submarines, let alone the future force of 41 or even 48, cannot adequately meet the demand of our undersea capabilities.    That is the kind of area that begs for reassessment and I look forward to the outcome of their review, not just for submarines, but across all aspects of our naval fleet. However, if we are ever going to reach the required fleet size, Congress and the Nation must grapple with the dual challenges of the Budget Control Act [BCA] and the critical need to recapitalize our sea-based strategic deterrent submarine fleet without depleting resources for other vital shipbuilding programs.    If not addressed, both of these issues will significantly impact our ability to build and sustain the fleet we need. I hope our witnesses will share their views on both subjects with us today. The shortfalls we will face are largely the result of decisions made in previous decades which we cannot undo in a single year. What we can do, though, is continue to work in a bipartisan way to address our current and future shipbuilding needs going forward.    I am proud that this panel has a record of doing so and I look forward to sustaining that record. The witnesses' input today is vital as we prepare to mark up the 2017 defense authorization bill and continue to build the fleet we need for the future. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lehman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lehman. Sorry. It has been a long time since I have been before this distinguished committee and it really is distinguished.    I spent hundreds of hours before this committee and your predecessors. Charlie Bennett, I think I spent more time with Charlie when I was Secretary than I did with anybody else but my wife. And the history that this subcommittee, and its predecessor committee, has had in building and leading, helping to lead executive branches to form the kind of Navy that has prevented wars, and prevented us losing wars, stands out among all committees, in my judgment, in the history of the Congress. And you have been able to carry that tradition and are continuing to lead and show a vision of where a bipartisan naval strategy can be achieved. So thank you for that.    I am delighted to be back. It has been a long time. But as you know, just so everybody knows my prejudices, the naval tradition in my family is old. George Lehman was in the Revolutionary Navy. My great grandfather was in the Union Navy. My father was in World War II. I was a Reserve naval aviator for 25 years, and ended up touching virtually every trouble spot during that period. My son was a naval aviator with three tours on the Teddy Roosevelt in all of the combat areas. So I come with prejudices.    I was Secretary of the Navy for 6 years. The accomplishments of the Navy in those years, I think, was made possible because, particularly starting in 1977, 1978, 1979, your subcommittee and the Seapower Subcommittee on the Senate side, laid the groundwork, the intellectual groundwork at a time when the Nation was not fully conscious of what the dangers really were; that we were, in fact, losing the Cold War. And as a result of the groundwork and the foundation of strategic thinking that was laid by your subcommittee in those years leading up to 1981, the possibility of a bipartisan majority, starting in 1981, led on the Senate side by Scoop Jackson and others, and on the House side by Charlie Bennett, and with President Reagan adopting basically what your philosophy had laid down, intellectual foundations, we were able to reverse what was a very unpleasant result of the postwar, the post-Vietnam war letdown and disarmament that had undertaken.    I think that history will show that it was those years that really won the war, the Cold War at sea. It was the demonstration that we could build a Navy and maintain a Navy without breaking the bank and we could defeat the Soviet forces at sea. And I think that was a major contribution to the collapse of the Soviet Union.    Now, as I have said before, quoting my boss, my old boss, Henry Kissinger, ``History doesn't repeat itself but it rhymes.'' And we are rhyming again now. Not only with the post-Vietnam period of disarmament, but we are rhyming more disturbingly with the 1930s and the reverse of what Teddy Roosevelt famously argued for, to speak softly but carry a big stick.    We are currently speaking loudly about Chinese incursions in the South China Sea, the Russian Navy incursions, and yet we are carrying an ever-smaller stick. And while the intentions and naval policy has always been bipartisan, but sometimes the reality of what is really happening compared to what the hope and intention of Congress is, are not the same.    The fact is, we have allowed inattention over 20 years to the structure, the practices, the bureaucracy of the Department of Defense that it has become so dysfunctional that we currently have, according to the GAO [Government Accountability Office], $450 billion of cost overruns in current programs. Those are going to have to be paid. These are contractual obligations. They are not funded. That is about 6 years of the procurement budgets for ACAT [Acquisition Category] I and II programs. And every year we are averaging about 20 percent cost overruns regardless of Nunn-McCurdy breaches, and so forth. That is what the real numbers are.    So we are disarming rapidly. We are spending today roughly the same in constant dollars as we did at the height of the Reagan administration. And we have an Army not of 20 divisions, as Reagan built, but 8. We have an Air Force of not 35 tactical fighter wings, as President Reagan built, but 15. We don't have 220 strategic bombers as Reagan had, we have 72. We don't have a 594-ship Navy, as Reagan built with that same amount of money, but we have 272. This is unilateral disarmament.    And I am just so really optimistic and delighted about what you did in this committee and working with the Senate to start really fundamental reform; not the kind of reform that everybody talks about every year, we are going to reform this and reform that. But what you all did in the NDAA [National Defense Authorization Act] that was signed earlier this year and what you are on the route of doing for the NDAA for this year, is truly historic and starts the process of dismantling this vast bureaucratic, amorphous entity that has strangled innovation, strangled cost control, strangled common sense.    We have got to do that if we are going to get back to the kind of effective procurement to rebuild a Navy that is sufficient in size and quality to deter as we deterred--the 600-ship Navy as an objective was not to win a war. It was to deter a war and it succeeded. It ended the Cold War without really firing a shot. And unfortunately, today, we are doing the opposite. We are getting weaker. The threat is getting more sophisticated and diverse in more places around the world than we had in the nice bipolar Cold War and so we have really got to reverse before it leads to unintended combat which we could well lose.    So I look forward to your questions and thank you for inviting me. It is a pleasure to be here.    [The prepared statement of Mr. Lehman can be found in the Appendix on page 31.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Secretary, thank you. Admiral Natter.</t>
   </si>
   <si>
-    <t>Natter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Natter. Thank you, Mr. Chairman. Chairman Forbes, Ranking Member Courtney, ladies and gentlemen, I am honored to be here as an independent witness before your subcommittee, sitting next to Secretary Lehman, someone who the Navy certainly respects and admires for what he and the administration of President Reagan were able to accomplish.    I can say that my family doesn't have near the historical platitudes that Secretary Lehman talked about. Although I must admit, I have six brothers, six of whom were naval officers and one Air Force officer and we still love him.    And I have three daughters. All three served in the Navy. Two still are naval officers, and two sons-in-law are in the Navy. So I have a vested interest like so many of us in what happens to our military today, and especially what happens to our young men and women serving if we call on them to go to combat.    I am, quite honestly, worried today about the troubling reduction in the size of our Navy and the shrinking of our technology advantage. There is a dangerous myth out there espoused by some that our shrinking numbers, happily, can be offset by our technology; that our ships today are so much better than our ships of the past.    The uncomfortable little truth, though, is that although our ships are indeed better than they were in the past, our potential adversaries are not producing buggy whips and ships that sail either. And in fact, some, not most, but some of their technologies are, in fact, better than ours today. The truth is, numbers do count, and the truth is, we need more ships and aircraft in our Navy today.    Let me expand on that a bit. With respect to the Navy's force structure, the current number of that force structure is 308. But as a practical matter, that number is not achievable without top-line relief of the Navy's SCN [Shipbuilding and Conversion, Navy] account to accommodate the Ohio Replacement Program. Everyone knows that. There are solutions out there. There are critics of those solutions, for very valid, and very longstanding criticisms of those approaches. But the reality is that without an alternative, without a top-line increase or some other account to accommodate this national strategic requirement, the Navy's shipbuilding account is not worth the paper it is written on.    And given today's realities, what are those? A fast-growing Chinese military force structure and its actions in Asia waters that essentially are grabbing 600,000 square miles of ocean resources; with North Korea developing nuclear weapons and the means to deliver them--no one disagrees with that. We are watching it happen--with Russian naval deployments returning to Cold War levels--that is not a secret, everyone is aware of that--and with ongoing terrorism deployments on the part of our Navy.    My view is, given those realities that I just laid out, our minimum number of Navy combatant force structure ships has to be, today, given that threat, about 350 ships. I mean, all you have to do is look at the number of ships we had when I was commander of the 7th Fleet in Asia and the opposition that we faced in those days.    The problems today are much more serious and the numbers of those potential adversaries have--the numbers they have are much more serious than when I was there, and yet, the numbers of our ships and aircraft are smaller. We have got to have at least a 350-ship Navy to be able to confront the kinds of challenges that we face today, and those technologies that those challenges have, and the appropriate number of balanced aircraft to operate with them.    With that, I am going to hush, and then open it up to your questions. Thank you.    [The prepared statement of Admiral Natter can be found in the Appendix on page 37.]</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you. Thank you, gentlemen, and both of you have good, strong long-time connections to the State of Alabama. Secretary Lehman is from my hometown in Mobile, and Admiral, you are a son of the State of Alabama. We appreciate both of you and thank you for your service.    Two weeks ago I was in China at a conference, and one of the days in conference we spent talking about the military situation there. We had a representative from the United States side, and a representative from the Chinese side. And the Chinese representative was remarkably candid and very worrisome. I would like to read a portion, just a few sentences of what he had to say, and ask you to react to it. To some extent, I think, Admiral, you have already addressed it, but I would like for you to be a little more specific about what we would do in response to this. But, listen to what he said. You know, this is the Chinese speaking:    ``As is well known, security frictions between China and the U.S. for a long time have occurred mainly within the first island chain. Chinese efforts to secure reunification across the Taiwanese Strait and to safeguard its territory, sovereignty, and maritime rights and interests in the East China Sea and the South China Sea, face incessant U.S. interference and intervention.'' And here is the key sentence. ``The development of a new balance of power will be marked by China's enhanced capacity to safeguard its territory and sovereignty and maritime rights and interests and a weakened U.S. capability to intervene.'' That is the Chinese perspective on us.    So if we are going to reverse that, specifically, what do we need to do?</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. Secretary Lehman and Admiral Natter, thank you both for your service to our country and for your testimony here today.    For both of you, I don't disagree with anything you have said in terms of strength, in terms of where we were, and where we are. The challenge, of course, that we have and the circumstances were different back when you were there and where we are now, is the significant national debt that--the annual budget deficits and a crushing national debt that we have to contend with, which in itself, is a threat to U.S. national security--both short-term rate and long term.    So given those circumstances, you know, what is your guidance and advice to how we now balance those realities with the priorities that we have in being able to defend the country and have the size force that we actually need given the, you know, the budget realities that we are in?</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman. Gentlemen, thank you so much for joining us. Thanks for your service.    I wanted to talk about two issues I believe we see of the Navy force structure. One is amphibious lift. I think we are doing more to address that this year. I want to thank the chairman for all of his efforts and a continuing effort to address what I believe is a shortcoming in amphibious lift.    But I do want to get your perspective on where we are with our submarine force. A couple of different tracks, you see China continuing to grow their fleet moving eastward through the South China Sea into the Pacific, more presence there. Secondly, with the Russians, the fifth-generation submarine, the Yasen-class, the Severodvinsk very, very capable attack submarine. We see those forces going in that direction. We see our forces going in the opposite direction. The 30-year shipbuilding plan shows us going down to a 41-boat force in our attack submarines. We see, too, a gap between Ohio-class retirements, Ohio-class replacement availability. We see back and forth about a national sea-based deterrence fund to make sure that we can fund Ohio-class replacement.    Give me your perspective on what we need to do overall with our submarine force, which I believe is truly going to be the most tactically and strategically important element of our Navy, and not to discount the others, but to have that as part of that, part of the nuclear triad, but also the ability to keep up with pretty advanced submarines with the Russians and the numbers of Chinese submarines that we will see out there.    Give me your perspective on what we need to do both in our attack class, in our Ohio class, to make sure that we counter what we see going on with the other, we will call them, near peers?</t>
   </si>
   <si>
@@ -172,9 +151,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. Thank you, gentlemen. A follow-up to Mr. Wittman's question, that was kind of what I wanted to talk about as you spoke broadly about the nuclear threat coming from North Korea to places like Japan and South Korea. Representing Hawaii, this is something that as North Korea beats its drums and makes its threats, Hawaii falls within range of their ICBM [intercontinental ballistic missile] capabilities and now the miniaturized nuclear capabilities that they are talking about.    And so this question of our submarines, the projected reduction and the need for us to be able to maintain that is something that is critical. But really, also, the entire ballistic missile defense capability that we are looking at is of paramount importance.    I am wondering if you could talk a little bit more about that ballistic missile defense and where you see that falls into this need for what you talk about a bipartisan strategy, a national security strategy.</t>
   </si>
   <si>
@@ -193,9 +169,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman, and thank you both for your service. My goodness, all the way back to the Revolutionary War. I mean----</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
   </si>
   <si>
     <t>412620</t>
-  </si>
-  <si>
-    <t>Gwen Graham</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    Thank you so much, gentlemen. I wish I would have been here at the beginning. I found this to be so informative. Really appreciate all you bring to this discussion.    You mentioned, Mr. Secretary, the Littoral Combat Ship. I am interested in talking a little bit more about that. Since I have sat down, you have said that the frigate, you don't want to have the LCS and the different roles it can play, you think the frigate would be a better ship for some purposes. You have also said that a ship can't be all things for all possibilities. If I have quoted you wrong, please correct me.    How do you see the LCS, its current role, what it is expected to do? Can it meet those challenges? And, Admiral, you as well. I think the current budget from the President has decreased the number of LCSes that we are going to be purchasing. Do we need to maintain the number or even increase them? And just how do you see this fitting into our Navy operations today? Thank you.</t>
@@ -700,11 +670,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -724,13 +692,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -752,11 +718,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -776,13 +740,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,11 +766,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -828,13 +788,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -856,11 +814,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -880,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -906,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -932,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -958,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -986,11 +934,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1010,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1036,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1062,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1088,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1114,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1142,11 +1078,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1166,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1192,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1218,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1244,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1272,11 +1198,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1296,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1322,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1348,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1376,11 +1294,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1400,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1426,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1452,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1478,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1506,11 +1414,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1530,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1556,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1582,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1608,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1634,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1660,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1686,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1712,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1738,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1766,11 +1654,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1790,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1816,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1844,11 +1726,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1868,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1896,11 +1774,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1920,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1948,11 +1822,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1972,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2000,11 +1870,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2024,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2050,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2078,11 +1942,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2102,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2130,11 +1990,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2154,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2182,11 +2038,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2206,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2234,11 +2086,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2258,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2284,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2312,11 +2158,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2336,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2364,11 +2206,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2388,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2416,11 +2254,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Well, I want to welcome all of our members to our hearing today. I am particularly pleased to have some of our Nation's foremost naval experts providing testimony before our subcommittee.    We have the Honorable John F. Lehman, former Secretary of the Navy, and Admiral Robert J. Natter, U.S. Navy, retired, former Commander, Fleet Forces Command. Gentlemen, thank you so much for all that you have done for our country and we are delighted to have you with us today.    When John Lehman stepped down as Secretary of the Navy in 1987, we had 594 ships. When Admiral Natter retired from the Navy in 2003, we had 297 ships. Today, we have 272 ships. The size of our fleet is only one metric for Navy strength, but it is an important one. And while I firmly believe that the United States Navy remains the most powerful and capable maritime force in the world, I am concerned about the future and the trend lines that we see in those three points.    We have heard from the Chief of Naval Operations [CNO] Admiral Richardson that we are returning to an era of great power competition in which our maritime superiority will be contested. We have heard the gaps in our aircraft carrier presence will continue to occur in the Middle East and the Pacific. We have heard from the Marine Corps that shortfalls in amphibious ships are driving them to consider deploying aboard foreign ships.    A few weeks ago, Admiral Harris, our commander in the Pacific, testified to Congress that the Navy can currently only fulfill 62 percent of his demand for submarines. We all thought that sounded pretty dire, but just last week I was informed by the Navy that across the board, the Navy will only be able to meet 42 percent of anticipated demand for forces in fiscal year 2017. So it turns out that Admiral Harris' situation may actually be above average, an alarming realization indeed.    The conclusion we should all be drawing from this data is that we need more ships, and more aircraft, and more investment in other elements and enablers of naval power. The administration points to a ship construction program that will meet the 380-ship Navy in the next few years. However, if one looks under the hood of this car, one sees some disturbing details. The administration continues to count ships that they intend to shrink wrap and tie to the pier. Once again, they are proposing to lay up half our cruisers and truncate the procurement of small surface combatants.    Now, in fiscal year 2017, they are asking for permission to deactivate an entire carrier air wing. These trend lines are, indeed, concerning and point to a clear need to provide additional investment in our Navy and in the other elements of our national defense. They are also evidence, I believe, of malaise and a lack of vision in thinking about American seapower.    While I believe that our uniformed leaders are fully capable of providing this vision and leadership, I believe the administration, and the next, must place a higher priority on national security and the strength of our Navy. Our witnesses today have fought these battles before and are a clear source of inspiration as we navigate these troubled waters and seek to rebuild our maritime strength. We are indebted to them for their service, and today we once again call on their wisdom and foresight. I look forward to hearing their thoughts.    But now I turn to my good friend and colleague, the ranking member of the subcommittee, Congressman Joe Courtney of Connecticut, for any comments he might have.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 29.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Great, thank you, Mr. Chairman, for holding today's hearing to hear the views of our two distinguished witnesses on the Navy's force structure. As the Chief of Naval Operations Admiral John Richardson shared with our committee last month, the Navy is undergoing a review of its Force Structure Assessment. Given the changing dynamics around the world, the growing demand for our ships, and the increasing strain on our naval fleet, I welcome this reassessment of our force structure requirements, which is the subject of today's hearing.    Our current fleet requirements stand at 308 ships which, thanks to the 84 ships under contract over the last several years, we expect to reach within the next 5 years. That is good news, but it is just a start because even under the Navy's plan, we will not sustain the levels needed to fully support the various components of that fleet.    While the 30-year shipbuilding plan for 2017 has still not been submitted to Congress, we expect it to reflect what we saw in the 2016 plan, that even when we meet the 308-ship goal, key shortfalls will remain.    For example, we will face shortages in small and large surface combatants as well as attack submarines over the next three decades. Additional shortfalls remain in the fighter aircraft and other capabilities that will be key to combating the challenges of the future.    Notably, one area that the CNO singled out for particular review in the Force Structure Assessment was our attack submarine force. The current requirement of 48 was set nearly a decade ago before undersea resurgence that we see now by China and Russia.    Retired Admiral Jim Stavridis told our panel that Russian submarine activity is probably 70 to 80 percent of what we saw during Cold War times. Admiral Harris told us of his concerns that the U.S. submarine force will dip to 41 at a time when China is increasing their fleet size and advancing their undersea capabilities. European Commander General Breedlove told us that the submarine shortfall leaves us playing zone defense in the North Atlantic. And above all, our combatant commanders have been clear to us that the current fleet of 54 attack submarines, let alone the future force of 41 or even 48, cannot adequately meet the demand of our undersea capabilities.    That is the kind of area that begs for reassessment and I look forward to the outcome of their review, not just for submarines, but across all aspects of our naval fleet. However, if we are ever going to reach the required fleet size, Congress and the Nation must grapple with the dual challenges of the Budget Control Act [BCA] and the critical need to recapitalize our sea-based strategic deterrent submarine fleet without depleting resources for other vital shipbuilding programs.    If not addressed, both of these issues will significantly impact our ability to build and sustain the fleet we need. I hope our witnesses will share their views on both subjects with us today. The shortfalls we will face are largely the result of decisions made in previous decades which we cannot undo in a single year. What we can do, though, is continue to work in a bipartisan way to address our current and future shipbuilding needs going forward.    I am proud that this panel has a record of doing so and I look forward to sustaining that record. The witnesses' input today is vital as we prepare to mark up the 2017 defense authorization bill and continue to build the fleet we need for the future. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lehman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lehman. Sorry. It has been a long time since I have been before this distinguished committee and it really is distinguished.    I spent hundreds of hours before this committee and your predecessors. Charlie Bennett, I think I spent more time with Charlie when I was Secretary than I did with anybody else but my wife. And the history that this subcommittee, and its predecessor committee, has had in building and leading, helping to lead executive branches to form the kind of Navy that has prevented wars, and prevented us losing wars, stands out among all committees, in my judgment, in the history of the Congress. And you have been able to carry that tradition and are continuing to lead and show a vision of where a bipartisan naval strategy can be achieved. So thank you for that.    I am delighted to be back. It has been a long time. But as you know, just so everybody knows my prejudices, the naval tradition in my family is old. George Lehman was in the Revolutionary Navy. My great grandfather was in the Union Navy. My father was in World War II. I was a Reserve naval aviator for 25 years, and ended up touching virtually every trouble spot during that period. My son was a naval aviator with three tours on the Teddy Roosevelt in all of the combat areas. So I come with prejudices.    I was Secretary of the Navy for 6 years. The accomplishments of the Navy in those years, I think, was made possible because, particularly starting in 1977, 1978, 1979, your subcommittee and the Seapower Subcommittee on the Senate side, laid the groundwork, the intellectual groundwork at a time when the Nation was not fully conscious of what the dangers really were; that we were, in fact, losing the Cold War. And as a result of the groundwork and the foundation of strategic thinking that was laid by your subcommittee in those years leading up to 1981, the possibility of a bipartisan majority, starting in 1981, led on the Senate side by Scoop Jackson and others, and on the House side by Charlie Bennett, and with President Reagan adopting basically what your philosophy had laid down, intellectual foundations, we were able to reverse what was a very unpleasant result of the postwar, the post-Vietnam war letdown and disarmament that had undertaken.    I think that history will show that it was those years that really won the war, the Cold War at sea. It was the demonstration that we could build a Navy and maintain a Navy without breaking the bank and we could defeat the Soviet forces at sea. And I think that was a major contribution to the collapse of the Soviet Union.    Now, as I have said before, quoting my boss, my old boss, Henry Kissinger, ``History doesn't repeat itself but it rhymes.'' And we are rhyming again now. Not only with the post-Vietnam period of disarmament, but we are rhyming more disturbingly with the 1930s and the reverse of what Teddy Roosevelt famously argued for, to speak softly but carry a big stick.    We are currently speaking loudly about Chinese incursions in the South China Sea, the Russian Navy incursions, and yet we are carrying an ever-smaller stick. And while the intentions and naval policy has always been bipartisan, but sometimes the reality of what is really happening compared to what the hope and intention of Congress is, are not the same.    The fact is, we have allowed inattention over 20 years to the structure, the practices, the bureaucracy of the Department of Defense that it has become so dysfunctional that we currently have, according to the GAO [Government Accountability Office], $450 billion of cost overruns in current programs. Those are going to have to be paid. These are contractual obligations. They are not funded. That is about 6 years of the procurement budgets for ACAT [Acquisition Category] I and II programs. And every year we are averaging about 20 percent cost overruns regardless of Nunn-McCurdy breaches, and so forth. That is what the real numbers are.    So we are disarming rapidly. We are spending today roughly the same in constant dollars as we did at the height of the Reagan administration. And we have an Army not of 20 divisions, as Reagan built, but 8. We have an Air Force of not 35 tactical fighter wings, as President Reagan built, but 15. We don't have 220 strategic bombers as Reagan had, we have 72. We don't have a 594-ship Navy, as Reagan built with that same amount of money, but we have 272. This is unilateral disarmament.    And I am just so really optimistic and delighted about what you did in this committee and working with the Senate to start really fundamental reform; not the kind of reform that everybody talks about every year, we are going to reform this and reform that. But what you all did in the NDAA [National Defense Authorization Act] that was signed earlier this year and what you are on the route of doing for the NDAA for this year, is truly historic and starts the process of dismantling this vast bureaucratic, amorphous entity that has strangled innovation, strangled cost control, strangled common sense.    We have got to do that if we are going to get back to the kind of effective procurement to rebuild a Navy that is sufficient in size and quality to deter as we deterred--the 600-ship Navy as an objective was not to win a war. It was to deter a war and it succeeded. It ended the Cold War without really firing a shot. And unfortunately, today, we are doing the opposite. We are getting weaker. The threat is getting more sophisticated and diverse in more places around the world than we had in the nice bipolar Cold War and so we have really got to reverse before it leads to unintended combat which we could well lose.    So I look forward to your questions and thank you for inviting me. It is a pleasure to be here.    [The prepared statement of Mr. Lehman can be found in the Appendix on page 31.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Secretary, thank you. Admiral Natter.</t>
   </si>
   <si>
+    <t>Natter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Natter. Thank you, Mr. Chairman. Chairman Forbes, Ranking Member Courtney, ladies and gentlemen, I am honored to be here as an independent witness before your subcommittee, sitting next to Secretary Lehman, someone who the Navy certainly respects and admires for what he and the administration of President Reagan were able to accomplish.    I can say that my family doesn't have near the historical platitudes that Secretary Lehman talked about. Although I must admit, I have six brothers, six of whom were naval officers and one Air Force officer and we still love him.    And I have three daughters. All three served in the Navy. Two still are naval officers, and two sons-in-law are in the Navy. So I have a vested interest like so many of us in what happens to our military today, and especially what happens to our young men and women serving if we call on them to go to combat.    I am, quite honestly, worried today about the troubling reduction in the size of our Navy and the shrinking of our technology advantage. There is a dangerous myth out there espoused by some that our shrinking numbers, happily, can be offset by our technology; that our ships today are so much better than our ships of the past.    The uncomfortable little truth, though, is that although our ships are indeed better than they were in the past, our potential adversaries are not producing buggy whips and ships that sail either. And in fact, some, not most, but some of their technologies are, in fact, better than ours today. The truth is, numbers do count, and the truth is, we need more ships and aircraft in our Navy today.    Let me expand on that a bit. With respect to the Navy's force structure, the current number of that force structure is 308. But as a practical matter, that number is not achievable without top-line relief of the Navy's SCN [Shipbuilding and Conversion, Navy] account to accommodate the Ohio Replacement Program. Everyone knows that. There are solutions out there. There are critics of those solutions, for very valid, and very longstanding criticisms of those approaches. But the reality is that without an alternative, without a top-line increase or some other account to accommodate this national strategic requirement, the Navy's shipbuilding account is not worth the paper it is written on.    And given today's realities, what are those? A fast-growing Chinese military force structure and its actions in Asia waters that essentially are grabbing 600,000 square miles of ocean resources; with North Korea developing nuclear weapons and the means to deliver them--no one disagrees with that. We are watching it happen--with Russian naval deployments returning to Cold War levels--that is not a secret, everyone is aware of that--and with ongoing terrorism deployments on the part of our Navy.    My view is, given those realities that I just laid out, our minimum number of Navy combatant force structure ships has to be, today, given that threat, about 350 ships. I mean, all you have to do is look at the number of ships we had when I was commander of the 7th Fleet in Asia and the opposition that we faced in those days.    The problems today are much more serious and the numbers of those potential adversaries have--the numbers they have are much more serious than when I was there, and yet, the numbers of our ships and aircraft are smaller. We have got to have at least a 350-ship Navy to be able to confront the kinds of challenges that we face today, and those technologies that those challenges have, and the appropriate number of balanced aircraft to operate with them.    With that, I am going to hush, and then open it up to your questions. Thank you.    [The prepared statement of Admiral Natter can be found in the Appendix on page 37.]</t>
   </si>
   <si>
@@ -97,6 +118,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you. Thank you, gentlemen, and both of you have good, strong long-time connections to the State of Alabama. Secretary Lehman is from my hometown in Mobile, and Admiral, you are a son of the State of Alabama. We appreciate both of you and thank you for your service.    Two weeks ago I was in China at a conference, and one of the days in conference we spent talking about the military situation there. We had a representative from the United States side, and a representative from the Chinese side. And the Chinese representative was remarkably candid and very worrisome. I would like to read a portion, just a few sentences of what he had to say, and ask you to react to it. To some extent, I think, Admiral, you have already addressed it, but I would like for you to be a little more specific about what we would do in response to this. But, listen to what he said. You know, this is the Chinese speaking:    ``As is well known, security frictions between China and the U.S. for a long time have occurred mainly within the first island chain. Chinese efforts to secure reunification across the Taiwanese Strait and to safeguard its territory, sovereignty, and maritime rights and interests in the East China Sea and the South China Sea, face incessant U.S. interference and intervention.'' And here is the key sentence. ``The development of a new balance of power will be marked by China's enhanced capacity to safeguard its territory and sovereignty and maritime rights and interests and a weakened U.S. capability to intervene.'' That is the Chinese perspective on us.    So if we are going to reverse that, specifically, what do we need to do?</t>
   </si>
   <si>
@@ -118,6 +145,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. Secretary Lehman and Admiral Natter, thank you both for your service to our country and for your testimony here today.    For both of you, I don't disagree with anything you have said in terms of strength, in terms of where we were, and where we are. The challenge, of course, that we have and the circumstances were different back when you were there and where we are now, is the significant national debt that--the annual budget deficits and a crushing national debt that we have to contend with, which in itself, is a threat to U.S. national security--both short-term rate and long term.    So given those circumstances, you know, what is your guidance and advice to how we now balance those realities with the priorities that we have in being able to defend the country and have the size force that we actually need given the, you know, the budget realities that we are in?</t>
   </si>
   <si>
@@ -136,6 +169,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman. Gentlemen, thank you so much for joining us. Thanks for your service.    I wanted to talk about two issues I believe we see of the Navy force structure. One is amphibious lift. I think we are doing more to address that this year. I want to thank the chairman for all of his efforts and a continuing effort to address what I believe is a shortcoming in amphibious lift.    But I do want to get your perspective on where we are with our submarine force. A couple of different tracks, you see China continuing to grow their fleet moving eastward through the South China Sea into the Pacific, more presence there. Secondly, with the Russians, the fifth-generation submarine, the Yasen-class, the Severodvinsk very, very capable attack submarine. We see those forces going in that direction. We see our forces going in the opposite direction. The 30-year shipbuilding plan shows us going down to a 41-boat force in our attack submarines. We see, too, a gap between Ohio-class retirements, Ohio-class replacement availability. We see back and forth about a national sea-based deterrence fund to make sure that we can fund Ohio-class replacement.    Give me your perspective on what we need to do overall with our submarine force, which I believe is truly going to be the most tactically and strategically important element of our Navy, and not to discount the others, but to have that as part of that, part of the nuclear triad, but also the ability to keep up with pretty advanced submarines with the Russians and the numbers of Chinese submarines that we will see out there.    Give me your perspective on what we need to do both in our attack class, in our Ohio class, to make sure that we counter what we see going on with the other, we will call them, near peers?</t>
   </si>
   <si>
@@ -151,6 +190,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. Thank you, gentlemen. A follow-up to Mr. Wittman's question, that was kind of what I wanted to talk about as you spoke broadly about the nuclear threat coming from North Korea to places like Japan and South Korea. Representing Hawaii, this is something that as North Korea beats its drums and makes its threats, Hawaii falls within range of their ICBM [intercontinental ballistic missile] capabilities and now the miniaturized nuclear capabilities that they are talking about.    And so this question of our submarines, the projected reduction and the need for us to be able to maintain that is something that is critical. But really, also, the entire ballistic missile defense capability that we are looking at is of paramount importance.    I am wondering if you could talk a little bit more about that ballistic missile defense and where you see that falls into this need for what you talk about a bipartisan strategy, a national security strategy.</t>
   </si>
   <si>
@@ -169,6 +214,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman, and thank you both for your service. My goodness, all the way back to the Revolutionary War. I mean----</t>
   </si>
   <si>
@@ -200,6 +251,12 @@
   </si>
   <si>
     <t>412620</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    Thank you so much, gentlemen. I wish I would have been here at the beginning. I found this to be so informative. Really appreciate all you bring to this discussion.    You mentioned, Mr. Secretary, the Littoral Combat Ship. I am interested in talking a little bit more about that. Since I have sat down, you have said that the frigate, you don't want to have the LCS and the different roles it can play, you think the frigate would be a better ship for some purposes. You have also said that a ship can't be all things for all possibilities. If I have quoted you wrong, please correct me.    How do you see the LCS, its current role, what it is expected to do? Can it meet those challenges? And, Admiral, you as well. I think the current budget from the President has decreased the number of LCSes that we are going to be purchasing. Do we need to maintain the number or even increase them? And just how do you see this fitting into our Navy operations today? Thank you.</t>
@@ -620,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +685,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,1613 +707,1891 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
       <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
       <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
       <c r="H38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
       <c r="H44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Courtney</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
   </si>
   <si>
     <t>412601</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Byrne</t>
@@ -677,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +697,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,1888 +722,2032 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
